--- a/Conjunto geral de intervalos.xlsx
+++ b/Conjunto geral de intervalos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davi2\OneDrive\Área de Trabalho\Tiktok\Remendo Minecraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764301DA-0195-46B9-AAA2-6EAD2444E3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B5BBD6-8E84-4350-B015-F34E8325D1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="270">
   <si>
     <t>Marker</t>
   </si>
@@ -39,12 +39,6 @@
     <t>Intervalo (s)</t>
   </si>
   <si>
-    <t>Marker 1</t>
-  </si>
-  <si>
-    <t>01:00:36:25</t>
-  </si>
-  <si>
     <t>Marker 2</t>
   </si>
   <si>
@@ -531,9 +525,6 @@
     <t>01:05:54:16</t>
   </si>
   <si>
-    <t>01:00:52:11</t>
-  </si>
-  <si>
     <t>01:00:58:24</t>
   </si>
   <si>
@@ -697,9 +688,6 @@
   </si>
   <si>
     <t>01:05:13:02</t>
-  </si>
-  <si>
-    <t>01:00:03:03</t>
   </si>
   <si>
     <t>01:00:10:10</t>
@@ -910,13 +898,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1197,13 +1184,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J192"/>
+  <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1227,7 +1217,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3636.833333333333</v>
+        <v>3639.9</v>
+      </c>
+      <c r="D2">
+        <v>3.066666666666606</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1238,10 +1231,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>3639.9</v>
+        <v>3643.9666666666672</v>
       </c>
       <c r="D3">
-        <v>3.066666666666606</v>
+        <v>4.066666666666606</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1252,10 +1245,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>3643.9666666666672</v>
+        <v>3648.7</v>
       </c>
       <c r="D4">
-        <v>4.066666666666606</v>
+        <v>4.7333333333331211</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1266,10 +1259,10 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>3648.7</v>
+        <v>3652.6333333333332</v>
       </c>
       <c r="D5">
-        <v>4.7333333333331211</v>
+        <v>3.933333333333394</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1280,10 +1273,10 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>3652.6333333333332</v>
+        <v>3657.4666666666672</v>
       </c>
       <c r="D6">
-        <v>3.933333333333394</v>
+        <v>4.8333333333334849</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1294,10 +1287,10 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>3657.4666666666672</v>
+        <v>3661.0666666666671</v>
       </c>
       <c r="D7">
-        <v>4.8333333333334849</v>
+        <v>3.5999999999999091</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1308,10 +1301,10 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>3661.0666666666671</v>
+        <v>3665</v>
       </c>
       <c r="D8">
-        <v>3.5999999999999091</v>
+        <v>3.933333333333394</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1322,10 +1315,10 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>3665</v>
+        <v>3669.6</v>
       </c>
       <c r="D9">
-        <v>3.933333333333394</v>
+        <v>4.5999999999999091</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1336,10 +1329,10 @@
         <v>21</v>
       </c>
       <c r="C10">
-        <v>3669.6</v>
+        <v>3673.1333333333332</v>
       </c>
       <c r="D10">
-        <v>4.5999999999999091</v>
+        <v>3.533333333333303</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1350,7 +1343,7 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>3673.1333333333332</v>
+        <v>3676.666666666667</v>
       </c>
       <c r="D11">
         <v>3.533333333333303</v>
@@ -1364,10 +1357,10 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>3676.666666666667</v>
+        <v>3680.5</v>
       </c>
       <c r="D12">
-        <v>3.533333333333303</v>
+        <v>3.8333333333334849</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1378,10 +1371,10 @@
         <v>27</v>
       </c>
       <c r="C13">
-        <v>3680.5</v>
+        <v>3684.2333333333331</v>
       </c>
       <c r="D13">
-        <v>3.8333333333334849</v>
+        <v>3.7333333333331211</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1392,10 +1385,10 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>3684.2333333333331</v>
+        <v>3688</v>
       </c>
       <c r="D14">
-        <v>3.7333333333331211</v>
+        <v>3.7666666666668789</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1406,10 +1399,10 @@
         <v>31</v>
       </c>
       <c r="C15">
-        <v>3688</v>
+        <v>3691.5666666666671</v>
       </c>
       <c r="D15">
-        <v>3.7666666666668789</v>
+        <v>3.566666666666606</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1420,10 +1413,10 @@
         <v>33</v>
       </c>
       <c r="C16">
-        <v>3691.5666666666671</v>
+        <v>3695.9333333333329</v>
       </c>
       <c r="D16">
-        <v>3.566666666666606</v>
+        <v>4.3666666666667879</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1434,10 +1427,10 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>3695.9333333333329</v>
+        <v>3701.8</v>
       </c>
       <c r="D17">
-        <v>4.3666666666667879</v>
+        <v>5.8666666666667879</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1448,10 +1441,10 @@
         <v>37</v>
       </c>
       <c r="C18">
-        <v>3701.8</v>
+        <v>3705.0333333333328</v>
       </c>
       <c r="D18">
-        <v>5.8666666666667879</v>
+        <v>3.2333333333331211</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1462,10 +1455,10 @@
         <v>39</v>
       </c>
       <c r="C19">
-        <v>3705.0333333333328</v>
+        <v>3709.4666666666672</v>
       </c>
       <c r="D19">
-        <v>3.2333333333331211</v>
+        <v>4.433333333333394</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1476,10 +1469,10 @@
         <v>41</v>
       </c>
       <c r="C20">
-        <v>3709.4666666666672</v>
+        <v>3713.1333333333332</v>
       </c>
       <c r="D20">
-        <v>4.433333333333394</v>
+        <v>3.6666666666665151</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1490,10 +1483,10 @@
         <v>43</v>
       </c>
       <c r="C21">
-        <v>3713.1333333333332</v>
+        <v>3717</v>
       </c>
       <c r="D21">
-        <v>3.6666666666665151</v>
+        <v>3.8666666666667879</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1504,10 +1497,10 @@
         <v>45</v>
       </c>
       <c r="C22">
-        <v>3717</v>
+        <v>3721.5333333333328</v>
       </c>
       <c r="D22">
-        <v>3.8666666666667879</v>
+        <v>4.533333333333303</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1518,10 +1511,10 @@
         <v>47</v>
       </c>
       <c r="C23">
-        <v>3721.5333333333328</v>
+        <v>3725.9</v>
       </c>
       <c r="D23">
-        <v>4.533333333333303</v>
+        <v>4.3666666666667879</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1532,10 +1525,10 @@
         <v>49</v>
       </c>
       <c r="C24">
-        <v>3725.9</v>
+        <v>3730.1333333333332</v>
       </c>
       <c r="D24">
-        <v>4.3666666666667879</v>
+        <v>4.2333333333331211</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1546,10 +1539,10 @@
         <v>51</v>
       </c>
       <c r="C25">
-        <v>3730.1333333333332</v>
+        <v>3734.2</v>
       </c>
       <c r="D25">
-        <v>4.2333333333331211</v>
+        <v>4.066666666666606</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1560,10 +1553,10 @@
         <v>53</v>
       </c>
       <c r="C26">
-        <v>3734.2</v>
+        <v>3737.8</v>
       </c>
       <c r="D26">
-        <v>4.066666666666606</v>
+        <v>3.6000000000003638</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1574,10 +1567,10 @@
         <v>55</v>
       </c>
       <c r="C27">
-        <v>3737.8</v>
+        <v>3741.666666666667</v>
       </c>
       <c r="D27">
-        <v>3.6000000000003638</v>
+        <v>3.8666666666663332</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1588,10 +1581,10 @@
         <v>57</v>
       </c>
       <c r="C28">
-        <v>3741.666666666667</v>
+        <v>3745.2666666666669</v>
       </c>
       <c r="D28">
-        <v>3.8666666666663332</v>
+        <v>3.6000000000003638</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1602,10 +1595,10 @@
         <v>59</v>
       </c>
       <c r="C29">
-        <v>3745.2666666666669</v>
+        <v>3749.4</v>
       </c>
       <c r="D29">
-        <v>3.6000000000003638</v>
+        <v>4.1333333333332121</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1616,10 +1609,10 @@
         <v>61</v>
       </c>
       <c r="C30">
-        <v>3749.4</v>
+        <v>3753.1333333333332</v>
       </c>
       <c r="D30">
-        <v>4.1333333333332121</v>
+        <v>3.7333333333331211</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1630,10 +1623,10 @@
         <v>63</v>
       </c>
       <c r="C31">
-        <v>3753.1333333333332</v>
+        <v>3757.4333333333329</v>
       </c>
       <c r="D31">
-        <v>3.7333333333331211</v>
+        <v>4.3000000000001819</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1644,10 +1637,10 @@
         <v>65</v>
       </c>
       <c r="C32">
-        <v>3757.4333333333329</v>
+        <v>3761.6</v>
       </c>
       <c r="D32">
-        <v>4.3000000000001819</v>
+        <v>4.1666666666665151</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1658,10 +1651,10 @@
         <v>67</v>
       </c>
       <c r="C33">
-        <v>3761.6</v>
+        <v>3764.7333333333331</v>
       </c>
       <c r="D33">
-        <v>4.1666666666665151</v>
+        <v>3.1333333333332121</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1672,10 +1665,10 @@
         <v>69</v>
       </c>
       <c r="C34">
-        <v>3764.7333333333331</v>
+        <v>3768.8</v>
       </c>
       <c r="D34">
-        <v>3.1333333333332121</v>
+        <v>4.0666666666670608</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1686,10 +1679,10 @@
         <v>71</v>
       </c>
       <c r="C35">
-        <v>3768.8</v>
+        <v>3773</v>
       </c>
       <c r="D35">
-        <v>4.0666666666670608</v>
+        <v>4.1999999999998181</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1700,10 +1693,10 @@
         <v>73</v>
       </c>
       <c r="C36">
-        <v>3773</v>
+        <v>3776.7333333333331</v>
       </c>
       <c r="D36">
-        <v>4.1999999999998181</v>
+        <v>3.7333333333331211</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1714,10 +1707,10 @@
         <v>75</v>
       </c>
       <c r="C37">
-        <v>3776.7333333333331</v>
+        <v>3780.8666666666668</v>
       </c>
       <c r="D37">
-        <v>3.7333333333331211</v>
+        <v>4.1333333333336668</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1728,10 +1721,10 @@
         <v>77</v>
       </c>
       <c r="C38">
-        <v>3780.8666666666668</v>
+        <v>3785.2</v>
       </c>
       <c r="D38">
-        <v>4.1333333333336668</v>
+        <v>4.3333333333330302</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1742,10 +1735,10 @@
         <v>79</v>
       </c>
       <c r="C39">
-        <v>3785.2</v>
+        <v>3788.9</v>
       </c>
       <c r="D39">
-        <v>4.3333333333330302</v>
+        <v>3.7000000000002728</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1756,10 +1749,10 @@
         <v>81</v>
       </c>
       <c r="C40">
-        <v>3788.9</v>
+        <v>3792.6333333333332</v>
       </c>
       <c r="D40">
-        <v>3.7000000000002728</v>
+        <v>3.7333333333331211</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1770,10 +1763,10 @@
         <v>83</v>
       </c>
       <c r="C41">
-        <v>3792.6333333333332</v>
+        <v>3796.2</v>
       </c>
       <c r="D41">
-        <v>3.7333333333331211</v>
+        <v>3.566666666666606</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1784,10 +1777,10 @@
         <v>85</v>
       </c>
       <c r="C42">
-        <v>3796.2</v>
+        <v>3800.2</v>
       </c>
       <c r="D42">
-        <v>3.566666666666606</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1798,10 +1791,10 @@
         <v>87</v>
       </c>
       <c r="C43">
-        <v>3800.2</v>
+        <v>3804.0666666666671</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>3.8666666666667879</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1812,10 +1805,10 @@
         <v>89</v>
       </c>
       <c r="C44">
-        <v>3804.0666666666671</v>
+        <v>3808.2666666666669</v>
       </c>
       <c r="D44">
-        <v>3.8666666666667879</v>
+        <v>4.2000000000002728</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1826,10 +1819,10 @@
         <v>91</v>
       </c>
       <c r="C45">
-        <v>3808.2666666666669</v>
+        <v>3811.5666666666671</v>
       </c>
       <c r="D45">
-        <v>4.2000000000002728</v>
+        <v>3.2999999999997272</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1840,10 +1833,10 @@
         <v>93</v>
       </c>
       <c r="C46">
-        <v>3811.5666666666671</v>
+        <v>3815.2666666666669</v>
       </c>
       <c r="D46">
-        <v>3.2999999999997272</v>
+        <v>3.7000000000002728</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1854,10 +1847,10 @@
         <v>95</v>
       </c>
       <c r="C47">
-        <v>3815.2666666666669</v>
+        <v>3819.4</v>
       </c>
       <c r="D47">
-        <v>3.7000000000002728</v>
+        <v>4.1333333333332121</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1868,10 +1861,10 @@
         <v>97</v>
       </c>
       <c r="C48">
-        <v>3819.4</v>
+        <v>3824.0333333333328</v>
       </c>
       <c r="D48">
-        <v>4.1333333333332121</v>
+        <v>4.6333333333332121</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1882,10 +1875,10 @@
         <v>99</v>
       </c>
       <c r="C49">
-        <v>3824.0333333333328</v>
+        <v>3827.3</v>
       </c>
       <c r="D49">
-        <v>4.6333333333332121</v>
+        <v>3.2666666666668789</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1896,10 +1889,10 @@
         <v>101</v>
       </c>
       <c r="C50">
-        <v>3827.3</v>
+        <v>3830.8666666666668</v>
       </c>
       <c r="D50">
-        <v>3.2666666666668789</v>
+        <v>3.566666666666606</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1910,10 +1903,10 @@
         <v>103</v>
       </c>
       <c r="C51">
-        <v>3830.8666666666668</v>
+        <v>3834.9333333333329</v>
       </c>
       <c r="D51">
-        <v>3.566666666666606</v>
+        <v>4.066666666666606</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1924,10 +1917,10 @@
         <v>105</v>
       </c>
       <c r="C52">
-        <v>3834.9333333333329</v>
+        <v>3838.3</v>
       </c>
       <c r="D52">
-        <v>4.066666666666606</v>
+        <v>3.3666666666667879</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1938,10 +1931,10 @@
         <v>107</v>
       </c>
       <c r="C53">
-        <v>3838.3</v>
+        <v>3841.0666666666671</v>
       </c>
       <c r="D53">
-        <v>3.3666666666667879</v>
+        <v>2.7666666666664241</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1952,10 +1945,10 @@
         <v>109</v>
       </c>
       <c r="C54">
-        <v>3841.0666666666671</v>
+        <v>3844.9666666666672</v>
       </c>
       <c r="D54">
-        <v>2.7666666666664241</v>
+        <v>3.9000000000000909</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1966,10 +1959,10 @@
         <v>111</v>
       </c>
       <c r="C55">
-        <v>3844.9666666666672</v>
+        <v>3848.9666666666672</v>
       </c>
       <c r="D55">
-        <v>3.9000000000000909</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1980,10 +1973,10 @@
         <v>113</v>
       </c>
       <c r="C56">
-        <v>3848.9666666666672</v>
+        <v>3853.0666666666671</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>4.0999999999999091</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1994,10 +1987,10 @@
         <v>115</v>
       </c>
       <c r="C57">
-        <v>3853.0666666666671</v>
+        <v>3857</v>
       </c>
       <c r="D57">
-        <v>4.0999999999999091</v>
+        <v>3.933333333333394</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2008,10 +2001,10 @@
         <v>117</v>
       </c>
       <c r="C58">
-        <v>3857</v>
+        <v>3860.7666666666669</v>
       </c>
       <c r="D58">
-        <v>3.933333333333394</v>
+        <v>3.7666666666668789</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2022,10 +2015,10 @@
         <v>119</v>
       </c>
       <c r="C59">
-        <v>3860.7666666666669</v>
+        <v>3863.7</v>
       </c>
       <c r="D59">
-        <v>3.7666666666668789</v>
+        <v>2.9333333333329392</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2036,10 +2029,10 @@
         <v>121</v>
       </c>
       <c r="C60">
-        <v>3863.7</v>
+        <v>3866.9</v>
       </c>
       <c r="D60">
-        <v>2.9333333333329392</v>
+        <v>3.2000000000002728</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2050,10 +2043,10 @@
         <v>123</v>
       </c>
       <c r="C61">
-        <v>3866.9</v>
+        <v>3871.2666666666669</v>
       </c>
       <c r="D61">
-        <v>3.2000000000002728</v>
+        <v>4.3666666666667879</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2064,10 +2057,10 @@
         <v>125</v>
       </c>
       <c r="C62">
-        <v>3871.2666666666669</v>
+        <v>3875.7666666666669</v>
       </c>
       <c r="D62">
-        <v>4.3666666666667879</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2078,10 +2071,10 @@
         <v>127</v>
       </c>
       <c r="C63">
-        <v>3875.7666666666669</v>
+        <v>3879.7</v>
       </c>
       <c r="D63">
-        <v>4.5</v>
+        <v>3.9333333333329392</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2092,10 +2085,10 @@
         <v>129</v>
       </c>
       <c r="C64">
-        <v>3879.7</v>
+        <v>3883.2333333333331</v>
       </c>
       <c r="D64">
-        <v>3.9333333333329392</v>
+        <v>3.533333333333303</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2106,10 +2099,10 @@
         <v>131</v>
       </c>
       <c r="C65">
-        <v>3883.2333333333331</v>
+        <v>3887.2</v>
       </c>
       <c r="D65">
-        <v>3.533333333333303</v>
+        <v>3.966666666666697</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2120,10 +2113,10 @@
         <v>133</v>
       </c>
       <c r="C66">
-        <v>3887.2</v>
+        <v>3890.3</v>
       </c>
       <c r="D66">
-        <v>3.966666666666697</v>
+        <v>3.1000000000003638</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2134,10 +2127,10 @@
         <v>135</v>
       </c>
       <c r="C67">
-        <v>3890.3</v>
+        <v>3894.0333333333328</v>
       </c>
       <c r="D67">
-        <v>3.1000000000003638</v>
+        <v>3.7333333333331211</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2148,10 +2141,10 @@
         <v>137</v>
       </c>
       <c r="C68">
-        <v>3894.0333333333328</v>
+        <v>3898</v>
       </c>
       <c r="D68">
-        <v>3.7333333333331211</v>
+        <v>3.966666666666697</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2162,10 +2155,10 @@
         <v>139</v>
       </c>
       <c r="C69">
-        <v>3898</v>
+        <v>3902.1333333333332</v>
       </c>
       <c r="D69">
-        <v>3.966666666666697</v>
+        <v>4.1333333333332121</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2176,10 +2169,10 @@
         <v>141</v>
       </c>
       <c r="C70">
-        <v>3902.1333333333332</v>
+        <v>3906.3</v>
       </c>
       <c r="D70">
-        <v>4.1333333333332121</v>
+        <v>4.1666666666669698</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2190,10 +2183,10 @@
         <v>143</v>
       </c>
       <c r="C71">
-        <v>3906.3</v>
+        <v>3909.5666666666671</v>
       </c>
       <c r="D71">
-        <v>4.1666666666669698</v>
+        <v>3.2666666666664241</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2204,10 +2197,10 @@
         <v>145</v>
       </c>
       <c r="C72">
-        <v>3909.5666666666671</v>
+        <v>3913.166666666667</v>
       </c>
       <c r="D72">
-        <v>3.2666666666664241</v>
+        <v>3.5999999999999091</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2218,10 +2211,10 @@
         <v>147</v>
       </c>
       <c r="C73">
-        <v>3913.166666666667</v>
+        <v>3917.9333333333329</v>
       </c>
       <c r="D73">
-        <v>3.5999999999999091</v>
+        <v>4.7666666666668789</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2232,10 +2225,10 @@
         <v>149</v>
       </c>
       <c r="C74">
-        <v>3917.9333333333329</v>
+        <v>3921.5</v>
       </c>
       <c r="D74">
-        <v>4.7666666666668789</v>
+        <v>3.566666666666606</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2246,10 +2239,10 @@
         <v>151</v>
       </c>
       <c r="C75">
-        <v>3921.5</v>
+        <v>3925.9666666666672</v>
       </c>
       <c r="D75">
-        <v>3.566666666666606</v>
+        <v>4.466666666666697</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2260,10 +2253,10 @@
         <v>153</v>
       </c>
       <c r="C76">
-        <v>3925.9666666666672</v>
+        <v>3930</v>
       </c>
       <c r="D76">
-        <v>4.466666666666697</v>
+        <v>4.033333333333303</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2274,10 +2267,10 @@
         <v>155</v>
       </c>
       <c r="C77">
-        <v>3930</v>
+        <v>3934.166666666667</v>
       </c>
       <c r="D77">
-        <v>4.033333333333303</v>
+        <v>4.1666666666665151</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2288,10 +2281,10 @@
         <v>157</v>
       </c>
       <c r="C78">
-        <v>3934.166666666667</v>
+        <v>3938.7</v>
       </c>
       <c r="D78">
-        <v>4.1666666666665151</v>
+        <v>4.533333333333303</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2302,10 +2295,10 @@
         <v>159</v>
       </c>
       <c r="C79">
-        <v>3938.7</v>
+        <v>3942.3666666666668</v>
       </c>
       <c r="D79">
-        <v>4.533333333333303</v>
+        <v>3.6666666666669698</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2316,10 +2309,10 @@
         <v>161</v>
       </c>
       <c r="C80">
-        <v>3942.3666666666668</v>
+        <v>3946.5666666666671</v>
       </c>
       <c r="D80">
-        <v>3.6666666666669698</v>
+        <v>4.1999999999998181</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2330,10 +2323,10 @@
         <v>163</v>
       </c>
       <c r="C81">
-        <v>3946.5666666666671</v>
+        <v>3950.6333333333332</v>
       </c>
       <c r="D81">
-        <v>4.1999999999998181</v>
+        <v>4.066666666666606</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2344,1545 +2337,1480 @@
         <v>165</v>
       </c>
       <c r="C82">
-        <v>3950.6333333333332</v>
+        <v>3954.5333333333328</v>
       </c>
       <c r="D82">
-        <v>4.066666666666606</v>
+        <v>3.9000000000000909</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" t="s">
         <v>166</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83">
+        <v>3658.8</v>
+      </c>
+      <c r="D83">
+        <v>6.433333333333394</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" t="s">
         <v>167</v>
       </c>
-      <c r="C83">
-        <v>3954.5333333333328</v>
-      </c>
-      <c r="D83">
-        <v>3.9000000000000909</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>3</v>
+      <c r="C84">
+        <v>3663.7666666666669</v>
+      </c>
+      <c r="D84">
+        <v>4.966666666666697</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B85" t="s">
         <v>168</v>
       </c>
       <c r="C85">
-        <v>3652.3666666666668</v>
+        <v>3668.3666666666668</v>
+      </c>
+      <c r="D85">
+        <v>4.5999999999999091</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B86" t="s">
         <v>169</v>
       </c>
       <c r="C86">
-        <v>3658.8</v>
+        <v>3673</v>
       </c>
       <c r="D86">
-        <v>6.433333333333394</v>
+        <v>4.6333333333332121</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B87" t="s">
         <v>170</v>
       </c>
       <c r="C87">
-        <v>3663.7666666666669</v>
+        <v>3677.4333333333329</v>
       </c>
       <c r="D87">
-        <v>4.966666666666697</v>
+        <v>4.433333333333394</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B88" t="s">
         <v>171</v>
       </c>
       <c r="C88">
-        <v>3668.3666666666668</v>
+        <v>3682.166666666667</v>
       </c>
       <c r="D88">
-        <v>4.5999999999999091</v>
+        <v>4.7333333333331211</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B89" t="s">
         <v>172</v>
       </c>
       <c r="C89">
-        <v>3673</v>
+        <v>3687.0666666666671</v>
       </c>
       <c r="D89">
-        <v>4.6333333333332121</v>
+        <v>4.9000000000000909</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B90" t="s">
         <v>173</v>
       </c>
       <c r="C90">
-        <v>3677.4333333333329</v>
+        <v>3692.0666666666671</v>
       </c>
       <c r="D90">
-        <v>4.433333333333394</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B91" t="s">
         <v>174</v>
       </c>
       <c r="C91">
-        <v>3682.166666666667</v>
+        <v>3696.2</v>
       </c>
       <c r="D91">
-        <v>4.7333333333331211</v>
+        <v>4.1333333333332121</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B92" t="s">
         <v>175</v>
       </c>
       <c r="C92">
-        <v>3687.0666666666671</v>
+        <v>3701.9333333333329</v>
       </c>
       <c r="D92">
-        <v>4.9000000000000909</v>
+        <v>5.7333333333335759</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B93" t="s">
         <v>176</v>
       </c>
       <c r="C93">
-        <v>3692.0666666666671</v>
+        <v>3706.9666666666672</v>
       </c>
       <c r="D93">
-        <v>5</v>
+        <v>5.033333333333303</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B94" t="s">
         <v>177</v>
       </c>
       <c r="C94">
-        <v>3696.2</v>
+        <v>3712.7</v>
       </c>
       <c r="D94">
-        <v>4.1333333333332121</v>
+        <v>5.7333333333331211</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B95" t="s">
         <v>178</v>
       </c>
       <c r="C95">
-        <v>3701.9333333333329</v>
+        <v>3717.6333333333332</v>
       </c>
       <c r="D95">
-        <v>5.7333333333335759</v>
+        <v>4.933333333333394</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B96" t="s">
         <v>179</v>
       </c>
       <c r="C96">
-        <v>3706.9666666666672</v>
+        <v>3722.3</v>
       </c>
       <c r="D96">
-        <v>5.033333333333303</v>
+        <v>4.6666666666669698</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B97" t="s">
         <v>180</v>
       </c>
       <c r="C97">
-        <v>3712.7</v>
+        <v>3727.166666666667</v>
       </c>
       <c r="D97">
-        <v>5.7333333333331211</v>
+        <v>4.8666666666663332</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B98" t="s">
         <v>181</v>
       </c>
       <c r="C98">
-        <v>3717.6333333333332</v>
+        <v>3732.2</v>
       </c>
       <c r="D98">
-        <v>4.933333333333394</v>
+        <v>5.033333333333303</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B99" t="s">
         <v>182</v>
       </c>
       <c r="C99">
-        <v>3722.3</v>
+        <v>3736.1333333333332</v>
       </c>
       <c r="D99">
-        <v>4.6666666666669698</v>
+        <v>3.933333333333394</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B100" t="s">
         <v>183</v>
       </c>
       <c r="C100">
-        <v>3727.166666666667</v>
+        <v>3740.4</v>
       </c>
       <c r="D100">
-        <v>4.8666666666663332</v>
+        <v>4.2666666666668789</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B101" t="s">
         <v>184</v>
       </c>
       <c r="C101">
-        <v>3732.2</v>
+        <v>3744.4</v>
       </c>
       <c r="D101">
-        <v>5.033333333333303</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B102" t="s">
         <v>185</v>
       </c>
       <c r="C102">
-        <v>3736.1333333333332</v>
+        <v>3749.7333333333331</v>
       </c>
       <c r="D102">
-        <v>3.933333333333394</v>
+        <v>5.3333333333330302</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B103" t="s">
         <v>186</v>
       </c>
       <c r="C103">
-        <v>3740.4</v>
+        <v>3754.0333333333328</v>
       </c>
       <c r="D103">
-        <v>4.2666666666668789</v>
+        <v>4.3000000000001819</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B104" t="s">
         <v>187</v>
       </c>
       <c r="C104">
-        <v>3744.4</v>
+        <v>3759.0333333333328</v>
       </c>
       <c r="D104">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B105" t="s">
         <v>188</v>
       </c>
       <c r="C105">
-        <v>3749.7333333333331</v>
+        <v>3762.833333333333</v>
       </c>
       <c r="D105">
-        <v>5.3333333333330302</v>
+        <v>3.8000000000001819</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B106" t="s">
         <v>189</v>
       </c>
       <c r="C106">
-        <v>3754.0333333333328</v>
+        <v>3767.1</v>
       </c>
       <c r="D106">
-        <v>4.3000000000001819</v>
+        <v>4.2666666666664241</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B107" t="s">
         <v>190</v>
       </c>
       <c r="C107">
-        <v>3759.0333333333328</v>
+        <v>3772.0333333333328</v>
       </c>
       <c r="D107">
-        <v>5</v>
+        <v>4.933333333333394</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B108" t="s">
         <v>191</v>
       </c>
       <c r="C108">
-        <v>3762.833333333333</v>
+        <v>3777</v>
       </c>
       <c r="D108">
-        <v>3.8000000000001819</v>
+        <v>4.966666666666697</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B109" t="s">
         <v>192</v>
       </c>
       <c r="C109">
-        <v>3767.1</v>
+        <v>3781.2</v>
       </c>
       <c r="D109">
-        <v>4.2666666666664241</v>
+        <v>4.1999999999998181</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B110" t="s">
         <v>193</v>
       </c>
       <c r="C110">
-        <v>3772.0333333333328</v>
+        <v>3786</v>
       </c>
       <c r="D110">
-        <v>4.933333333333394</v>
+        <v>4.8000000000001819</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B111" t="s">
         <v>194</v>
       </c>
       <c r="C111">
-        <v>3777</v>
+        <v>3790.5333333333328</v>
       </c>
       <c r="D111">
-        <v>4.966666666666697</v>
+        <v>4.533333333333303</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B112" t="s">
         <v>195</v>
       </c>
       <c r="C112">
-        <v>3781.2</v>
+        <v>3796.2666666666669</v>
       </c>
       <c r="D112">
-        <v>4.1999999999998181</v>
+        <v>5.7333333333335759</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B113" t="s">
         <v>196</v>
       </c>
       <c r="C113">
-        <v>3786</v>
+        <v>3801.2</v>
       </c>
       <c r="D113">
-        <v>4.8000000000001819</v>
+        <v>4.9333333333329392</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B114" t="s">
         <v>197</v>
       </c>
       <c r="C114">
-        <v>3790.5333333333328</v>
+        <v>3806.3</v>
       </c>
       <c r="D114">
-        <v>4.533333333333303</v>
+        <v>5.1000000000003638</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B115" t="s">
         <v>198</v>
       </c>
       <c r="C115">
-        <v>3796.2666666666669</v>
+        <v>3810.9333333333329</v>
       </c>
       <c r="D115">
-        <v>5.7333333333335759</v>
+        <v>4.6333333333332121</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B116" t="s">
         <v>199</v>
       </c>
       <c r="C116">
-        <v>3801.2</v>
+        <v>3817.4333333333329</v>
       </c>
       <c r="D116">
-        <v>4.9333333333329392</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B117" t="s">
         <v>200</v>
       </c>
       <c r="C117">
-        <v>3806.3</v>
+        <v>3821.5333333333328</v>
       </c>
       <c r="D117">
-        <v>5.1000000000003638</v>
+        <v>4.0999999999999091</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B118" t="s">
         <v>201</v>
       </c>
       <c r="C118">
-        <v>3810.9333333333329</v>
+        <v>3825.5</v>
       </c>
       <c r="D118">
-        <v>4.6333333333332121</v>
+        <v>3.966666666666697</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B119" t="s">
         <v>202</v>
       </c>
       <c r="C119">
-        <v>3817.4333333333329</v>
+        <v>3830.9666666666672</v>
       </c>
       <c r="D119">
-        <v>6.5</v>
+        <v>5.466666666666697</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B120" t="s">
         <v>203</v>
       </c>
       <c r="C120">
-        <v>3821.5333333333328</v>
+        <v>3835.4333333333329</v>
       </c>
       <c r="D120">
-        <v>4.0999999999999091</v>
+        <v>4.466666666666697</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B121" t="s">
         <v>204</v>
       </c>
       <c r="C121">
-        <v>3825.5</v>
+        <v>3840.3666666666668</v>
       </c>
       <c r="D121">
-        <v>3.966666666666697</v>
+        <v>4.933333333333394</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B122" t="s">
         <v>205</v>
       </c>
       <c r="C122">
-        <v>3830.9666666666672</v>
+        <v>3844.8</v>
       </c>
       <c r="D122">
-        <v>5.466666666666697</v>
+        <v>4.433333333333394</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B123" t="s">
         <v>206</v>
       </c>
       <c r="C123">
-        <v>3835.4333333333329</v>
+        <v>3850.3</v>
       </c>
       <c r="D123">
-        <v>4.466666666666697</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B124" t="s">
         <v>207</v>
       </c>
       <c r="C124">
-        <v>3840.3666666666668</v>
+        <v>3856</v>
       </c>
       <c r="D124">
-        <v>4.933333333333394</v>
+        <v>5.6999999999998181</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B125" t="s">
         <v>208</v>
       </c>
       <c r="C125">
-        <v>3844.8</v>
+        <v>3860.5</v>
       </c>
       <c r="D125">
-        <v>4.433333333333394</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B126" t="s">
         <v>209</v>
       </c>
       <c r="C126">
-        <v>3850.3</v>
+        <v>3865.9666666666672</v>
       </c>
       <c r="D126">
-        <v>5.5</v>
+        <v>5.466666666666697</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B127" t="s">
         <v>210</v>
       </c>
       <c r="C127">
-        <v>3856</v>
+        <v>3870.9</v>
       </c>
       <c r="D127">
-        <v>5.6999999999998181</v>
+        <v>4.933333333333394</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B128" t="s">
         <v>211</v>
       </c>
       <c r="C128">
-        <v>3860.5</v>
+        <v>3875.2333333333331</v>
       </c>
       <c r="D128">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.3333333333330302</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B129" t="s">
         <v>212</v>
       </c>
       <c r="C129">
-        <v>3865.9666666666672</v>
+        <v>3879.5666666666671</v>
       </c>
       <c r="D129">
-        <v>5.466666666666697</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.3333333333334849</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B130" t="s">
         <v>213</v>
       </c>
       <c r="C130">
-        <v>3870.9</v>
+        <v>3884.2</v>
       </c>
       <c r="D130">
-        <v>4.933333333333394</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.6333333333332121</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B131" t="s">
         <v>214</v>
       </c>
       <c r="C131">
-        <v>3875.2333333333331</v>
+        <v>3888.8</v>
       </c>
       <c r="D131">
-        <v>4.3333333333330302</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.6000000000003638</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B132" t="s">
         <v>215</v>
       </c>
       <c r="C132">
-        <v>3879.5666666666671</v>
+        <v>3892</v>
       </c>
       <c r="D132">
-        <v>4.3333333333334849</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3.1999999999998181</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B133" t="s">
         <v>216</v>
       </c>
       <c r="C133">
-        <v>3884.2</v>
+        <v>3895</v>
       </c>
       <c r="D133">
-        <v>4.6333333333332121</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B134" t="s">
         <v>217</v>
       </c>
       <c r="C134">
-        <v>3888.8</v>
+        <v>3899.5</v>
       </c>
       <c r="D134">
-        <v>4.6000000000003638</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B135" t="s">
         <v>218</v>
       </c>
       <c r="C135">
-        <v>3892</v>
+        <v>3905.0666666666671</v>
       </c>
       <c r="D135">
-        <v>3.1999999999998181</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5.566666666666606</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B136" t="s">
         <v>219</v>
       </c>
       <c r="C136">
-        <v>3895</v>
+        <v>3909</v>
       </c>
       <c r="D136">
-        <v>3</v>
-      </c>
-      <c r="J136" s="3"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3.933333333333394</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B137" t="s">
         <v>220</v>
       </c>
       <c r="C137">
-        <v>3899.5</v>
+        <v>3913.0666666666671</v>
       </c>
       <c r="D137">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.066666666666606</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="B138" t="s">
         <v>221</v>
       </c>
       <c r="C138">
-        <v>3905.0666666666671</v>
+        <v>3610.333333333333</v>
       </c>
       <c r="D138">
-        <v>5.566666666666606</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7.2333333333335759</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="B139" t="s">
         <v>222</v>
       </c>
       <c r="C139">
-        <v>3909</v>
+        <v>3614.3</v>
       </c>
       <c r="D139">
-        <v>3.933333333333394</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3.966666666666697</v>
+      </c>
+      <c r="F139" s="2"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="B140" t="s">
         <v>223</v>
       </c>
       <c r="C140">
-        <v>3913.0666666666671</v>
+        <v>3618.833333333333</v>
       </c>
       <c r="D140">
-        <v>4.066666666666606</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.533333333333303</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" t="s">
+        <v>224</v>
+      </c>
+      <c r="C141">
+        <v>3624.666666666667</v>
+      </c>
+      <c r="D141">
+        <v>5.8333333333330302</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C142">
-        <v>3603.1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3628.5</v>
+      </c>
+      <c r="D142">
+        <v>3.8333333333334849</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B143" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C143">
-        <v>3610.333333333333</v>
+        <v>3633.3</v>
       </c>
       <c r="D143">
-        <v>7.2333333333335759</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.8000000000001819</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B144" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C144">
-        <v>3614.3</v>
+        <v>3639.5</v>
       </c>
       <c r="D144">
-        <v>3.966666666666697</v>
-      </c>
-      <c r="F144" s="2"/>
+        <v>6.1999999999998181</v>
+      </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B145" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C145">
-        <v>3618.833333333333</v>
+        <v>3643.4666666666672</v>
       </c>
       <c r="D145">
-        <v>4.533333333333303</v>
+        <v>3.966666666666697</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B146" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C146">
-        <v>3624.666666666667</v>
+        <v>3648.166666666667</v>
       </c>
       <c r="D146">
-        <v>5.8333333333330302</v>
+        <v>4.6999999999998181</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B147" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C147">
-        <v>3628.5</v>
+        <v>3652.7</v>
       </c>
       <c r="D147">
-        <v>3.8333333333334849</v>
+        <v>4.533333333333303</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B148" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C148">
-        <v>3633.3</v>
+        <v>3656.7666666666669</v>
       </c>
       <c r="D148">
-        <v>4.8000000000001819</v>
+        <v>4.0666666666670608</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B149" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C149">
-        <v>3639.5</v>
+        <v>3661.4666666666672</v>
       </c>
       <c r="D149">
-        <v>6.1999999999998181</v>
+        <v>4.6999999999998181</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B150" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C150">
-        <v>3643.4666666666672</v>
+        <v>3665.8666666666668</v>
       </c>
       <c r="D150">
-        <v>3.966666666666697</v>
+        <v>4.4000000000000909</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B151" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C151">
-        <v>3648.166666666667</v>
+        <v>3670.1</v>
       </c>
       <c r="D151">
-        <v>4.6999999999998181</v>
+        <v>4.2333333333331211</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B152" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C152">
-        <v>3652.7</v>
+        <v>3675.6333333333332</v>
       </c>
       <c r="D152">
-        <v>4.533333333333303</v>
+        <v>5.533333333333303</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B153" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C153">
-        <v>3656.7666666666669</v>
+        <v>3680.1</v>
       </c>
       <c r="D153">
-        <v>4.0666666666670608</v>
+        <v>4.466666666666697</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B154" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="C154">
-        <v>3661.4666666666672</v>
+        <v>3684.2333333333331</v>
       </c>
       <c r="D154">
-        <v>4.6999999999998181</v>
+        <v>4.1333333333332121</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B155" t="s">
         <v>237</v>
       </c>
       <c r="C155">
-        <v>3665.8666666666668</v>
+        <v>3689.7666666666669</v>
       </c>
       <c r="D155">
-        <v>4.4000000000000909</v>
+        <v>5.5333333333337578</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B156" t="s">
         <v>238</v>
       </c>
       <c r="C156">
-        <v>3670.1</v>
+        <v>3694.5333333333328</v>
       </c>
       <c r="D156">
-        <v>4.2333333333331211</v>
+        <v>4.7666666666664241</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B157" t="s">
         <v>239</v>
       </c>
       <c r="C157">
-        <v>3675.6333333333332</v>
+        <v>3699.5666666666671</v>
       </c>
       <c r="D157">
-        <v>5.533333333333303</v>
+        <v>5.033333333333303</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B158" t="s">
         <v>240</v>
       </c>
       <c r="C158">
-        <v>3680.1</v>
+        <v>3704.4</v>
       </c>
       <c r="D158">
-        <v>4.466666666666697</v>
+        <v>4.8333333333334849</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B159" t="s">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c r="C159">
-        <v>3684.2333333333331</v>
+        <v>3708.4333333333329</v>
       </c>
       <c r="D159">
-        <v>4.1333333333332121</v>
+        <v>4.033333333333303</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B160" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C160">
-        <v>3689.7666666666669</v>
+        <v>3713.6</v>
       </c>
       <c r="D160">
-        <v>5.5333333333337578</v>
+        <v>5.1666666666665151</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B161" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C161">
-        <v>3694.5333333333328</v>
+        <v>3719.166666666667</v>
       </c>
       <c r="D161">
-        <v>4.7666666666664241</v>
+        <v>5.566666666666606</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B162" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C162">
-        <v>3699.5666666666671</v>
+        <v>3723.8666666666668</v>
       </c>
       <c r="D162">
-        <v>5.033333333333303</v>
+        <v>4.7000000000002728</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B163" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C163">
-        <v>3704.4</v>
+        <v>3727.5666666666671</v>
       </c>
       <c r="D163">
-        <v>4.8333333333334849</v>
+        <v>3.6999999999998181</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B164" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C164">
-        <v>3708.4333333333329</v>
+        <v>3731.3</v>
       </c>
       <c r="D164">
-        <v>4.033333333333303</v>
+        <v>3.7333333333335759</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B165" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C165">
-        <v>3713.6</v>
+        <v>3735.8</v>
       </c>
       <c r="D165">
-        <v>5.1666666666665151</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B166" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C166">
-        <v>3719.166666666667</v>
+        <v>3740.333333333333</v>
       </c>
       <c r="D166">
-        <v>5.566666666666606</v>
+        <v>4.533333333333303</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B167" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C167">
-        <v>3723.8666666666668</v>
+        <v>3744</v>
       </c>
       <c r="D167">
-        <v>4.7000000000002728</v>
+        <v>3.6666666666665151</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B168" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C168">
-        <v>3727.5666666666671</v>
+        <v>3749.9</v>
       </c>
       <c r="D168">
-        <v>3.6999999999998181</v>
+        <v>5.9000000000000909</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B169" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C169">
-        <v>3731.3</v>
+        <v>3754.4333333333329</v>
       </c>
       <c r="D169">
-        <v>3.7333333333335759</v>
+        <v>4.533333333333303</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B170" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C170">
-        <v>3735.8</v>
+        <v>3759.5333333333328</v>
       </c>
       <c r="D170">
-        <v>4.5</v>
+        <v>5.0999999999999091</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B171" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C171">
-        <v>3740.333333333333</v>
+        <v>3764.3666666666668</v>
       </c>
       <c r="D171">
-        <v>4.533333333333303</v>
+        <v>4.8333333333334849</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B172" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C172">
-        <v>3744</v>
+        <v>3768.1333333333332</v>
       </c>
       <c r="D172">
-        <v>3.6666666666665151</v>
+        <v>3.7666666666664241</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B173" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C173">
-        <v>3749.9</v>
+        <v>3773.4666666666672</v>
       </c>
       <c r="D173">
-        <v>5.9000000000000909</v>
+        <v>5.3333333333334849</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B174" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C174">
-        <v>3754.4333333333329</v>
+        <v>3778.4333333333329</v>
       </c>
       <c r="D174">
-        <v>4.533333333333303</v>
+        <v>4.966666666666697</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B175" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C175">
-        <v>3759.5333333333328</v>
+        <v>3784</v>
       </c>
       <c r="D175">
-        <v>5.0999999999999091</v>
+        <v>5.566666666666606</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B176" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C176">
-        <v>3764.3666666666668</v>
+        <v>3787.8666666666668</v>
       </c>
       <c r="D176">
-        <v>4.8333333333334849</v>
+        <v>3.8666666666667879</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B177" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C177">
-        <v>3768.1333333333332</v>
+        <v>3792.0666666666671</v>
       </c>
       <c r="D177">
-        <v>3.7666666666664241</v>
+        <v>4.1999999999998181</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B178" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C178">
-        <v>3773.4666666666672</v>
+        <v>3795.8666666666668</v>
       </c>
       <c r="D178">
-        <v>5.3333333333334849</v>
+        <v>3.8000000000001819</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B179" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C179">
-        <v>3778.4333333333329</v>
+        <v>3800.0666666666671</v>
       </c>
       <c r="D179">
-        <v>4.966666666666697</v>
+        <v>4.1999999999998181</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B180" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C180">
-        <v>3784</v>
+        <v>3803.9666666666672</v>
       </c>
       <c r="D180">
-        <v>5.566666666666606</v>
+        <v>3.9000000000000909</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B181" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C181">
-        <v>3787.8666666666668</v>
+        <v>3808.4333333333329</v>
       </c>
       <c r="D181">
-        <v>3.8666666666667879</v>
+        <v>4.466666666666697</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B182" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C182">
-        <v>3792.0666666666671</v>
+        <v>3815.7</v>
       </c>
       <c r="D182">
-        <v>4.1999999999998181</v>
+        <v>7.2666666666664241</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B183" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C183">
-        <v>3795.8666666666668</v>
+        <v>3821.166666666667</v>
       </c>
       <c r="D183">
-        <v>3.8000000000001819</v>
+        <v>5.466666666666697</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B184" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C184">
-        <v>3800.0666666666671</v>
+        <v>3825.833333333333</v>
       </c>
       <c r="D184">
-        <v>4.1999999999998181</v>
+        <v>4.6666666666669698</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B185" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C185">
-        <v>3803.9666666666672</v>
+        <v>3830.2333333333331</v>
       </c>
       <c r="D185">
-        <v>3.9000000000000909</v>
+        <v>4.3999999999996362</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B186" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C186">
-        <v>3808.4333333333329</v>
+        <v>3833.666666666667</v>
       </c>
       <c r="D186">
-        <v>4.466666666666697</v>
+        <v>3.433333333333394</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B187" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C187">
-        <v>3815.7</v>
+        <v>3837.5666666666671</v>
       </c>
       <c r="D187">
-        <v>7.2666666666664241</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>96</v>
-      </c>
-      <c r="B188" t="s">
-        <v>269</v>
-      </c>
-      <c r="C188">
-        <v>3821.166666666667</v>
-      </c>
-      <c r="D188">
-        <v>5.466666666666697</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>98</v>
-      </c>
-      <c r="B189" t="s">
-        <v>270</v>
-      </c>
-      <c r="C189">
-        <v>3825.833333333333</v>
-      </c>
-      <c r="D189">
-        <v>4.6666666666669698</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>100</v>
-      </c>
-      <c r="B190" t="s">
-        <v>271</v>
-      </c>
-      <c r="C190">
-        <v>3830.2333333333331</v>
-      </c>
-      <c r="D190">
-        <v>4.3999999999996362</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>102</v>
-      </c>
-      <c r="B191" t="s">
-        <v>272</v>
-      </c>
-      <c r="C191">
-        <v>3833.666666666667</v>
-      </c>
-      <c r="D191">
-        <v>3.433333333333394</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>104</v>
-      </c>
-      <c r="B192" t="s">
-        <v>273</v>
-      </c>
-      <c r="C192">
-        <v>3837.5666666666671</v>
-      </c>
-      <c r="D192">
         <v>3.9000000000000909</v>
       </c>
     </row>
